--- a/dev/VisualStudio/Watchdog/Watchdog_STM32F767ZI/WatchdogCalculations_F767ZI.xlsx
+++ b/dev/VisualStudio/Watchdog/Watchdog_STM32F767ZI/WatchdogCalculations_F767ZI.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>PCLK1</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
   <si>
     <t>Prescaler</t>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -373,92 +376,98 @@
     <col min="2" max="2" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>54000000</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <f>(1000/$B$1)*4096*(2^$B$2)*(_xlfn.BITAND($B3, 63)+1)</f>
+        <f>(1000/$B$1)*4096*(2^$B$2)*(_xlfn.BITAND($B3, $E$1)+1)</f>
         <v>0.60681481481481481</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">(1000/$B$1)*4096*(2^$B$2)*(_xlfn.BITAND($B4, 63)+1)</f>
+        <f t="shared" ref="D4:D5" si="0">(1000/$B$1)*4096*(2^$B$2)*(_xlfn.BITAND($B4, $E$1)+1)</f>
         <v>19.418074074074074</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>38.836148148148148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1"/>
     </row>
   </sheetData>
